--- a/doc/eda.xlsx
+++ b/doc/eda.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="100" yWindow="570" windowWidth="19150" windowHeight="9730" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="50" yWindow="590" windowWidth="19150" windowHeight="9730" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="tables" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -58,6 +58,14 @@
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <u val="single"/>
       <scheme val="minor"/>
     </font>
@@ -148,15 +156,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -166,15 +172,23 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,68 +556,67 @@
   </sheetPr>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
-    <col width="10.90625" bestFit="1" customWidth="1" style="13" min="1" max="1"/>
-    <col width="36.1796875" bestFit="1" customWidth="1" style="13" min="2" max="2"/>
-    <col width="22.36328125" bestFit="1" customWidth="1" style="13" min="3" max="3"/>
-    <col width="9.1796875" bestFit="1" customWidth="1" style="13" min="4" max="4"/>
-    <col width="10" bestFit="1" customWidth="1" style="13" min="8" max="8"/>
-    <col width="10" bestFit="1" customWidth="1" style="13" min="9" max="9"/>
-    <col width="9.81640625" bestFit="1" customWidth="1" style="13" min="10" max="10"/>
+    <col width="10.90625" bestFit="1" customWidth="1" style="19" min="1" max="1"/>
+    <col width="36.1796875" bestFit="1" customWidth="1" style="19" min="2" max="2"/>
+    <col width="22.36328125" bestFit="1" customWidth="1" style="19" min="3" max="3"/>
+    <col width="9.1796875" bestFit="1" customWidth="1" style="19" min="4" max="4"/>
+    <col width="10" bestFit="1" customWidth="1" style="19" min="8" max="9"/>
+    <col width="9.81640625" bestFit="1" customWidth="1" style="19" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>table</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>desc</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>file</t>
         </is>
       </c>
-      <c r="D1" s="11" t="inlineStr">
+      <c r="D1" s="9" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="E1" s="17" t="inlineStr">
+      <c r="E1" s="12" t="inlineStr">
         <is>
           <t>File_size</t>
         </is>
       </c>
-      <c r="F1" s="17" t="inlineStr">
+      <c r="F1" s="12" t="inlineStr">
         <is>
           <t>lines</t>
         </is>
       </c>
-      <c r="G1" s="17" t="inlineStr">
+      <c r="G1" s="12" t="inlineStr">
         <is>
           <t>cols</t>
         </is>
       </c>
-      <c r="H1" s="17" t="inlineStr">
+      <c r="H1" s="12" t="inlineStr">
         <is>
           <t>col_exists</t>
         </is>
       </c>
-      <c r="I1" s="17" t="inlineStr">
+      <c r="I1" s="12" t="inlineStr">
         <is>
           <t>col_unique</t>
         </is>
       </c>
-      <c r="J1" s="17" t="inlineStr">
+      <c r="J1" s="12" t="inlineStr">
         <is>
           <t>pk_unique</t>
         </is>
@@ -630,20 +643,32 @@
           <t>Dimensão</t>
         </is>
       </c>
-      <c r="E2" s="14" t="inlineStr">
-        <is>
-          <t>59.56 KB</t>
-        </is>
-      </c>
-      <c r="F2" s="14" t="n">
-        <v>745</v>
-      </c>
-      <c r="G2" s="14" t="n">
+      <c r="E2" s="16" t="inlineStr">
+        <is>
+          <t>35.40 KB</t>
+        </is>
+      </c>
+      <c r="F2" s="16" t="n">
+        <v>743</v>
+      </c>
+      <c r="G2" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="H2" s="15" t="n"/>
-      <c r="I2" s="15" t="n"/>
-      <c r="J2" s="15" t="n"/>
+      <c r="H2" s="17" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="I2" s="17" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="J2" s="17" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -666,20 +691,32 @@
           <t>Dimensão</t>
         </is>
       </c>
-      <c r="E3" s="14" t="inlineStr">
+      <c r="E3" s="16" t="inlineStr">
         <is>
           <t>6.96 KB</t>
         </is>
       </c>
-      <c r="F3" s="14" t="n">
-        <v>162</v>
-      </c>
-      <c r="G3" s="14" t="n">
+      <c r="F3" s="16" t="n">
+        <v>161</v>
+      </c>
+      <c r="G3" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="15" t="n"/>
-      <c r="I3" s="15" t="n"/>
-      <c r="J3" s="15" t="n"/>
+      <c r="H3" s="17" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="I3" s="17" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="J3" s="17" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -702,27 +739,47 @@
           <t>Dimensão</t>
         </is>
       </c>
-      <c r="E4" s="14" t="inlineStr">
+      <c r="E4" s="16" t="inlineStr">
         <is>
           <t>7.55 KB</t>
         </is>
       </c>
-      <c r="F4" s="14" t="n">
-        <v>101</v>
-      </c>
-      <c r="G4" s="14" t="n">
+      <c r="F4" s="16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G4" s="16" t="n">
         <v>21</v>
       </c>
-      <c r="H4" s="15" t="n"/>
-      <c r="I4" s="15" t="n"/>
-      <c r="J4" s="15" t="n"/>
+      <c r="H4" s="17" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="I4" s="17" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="J4" s="17" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
-    <row r="5"/>
+    <row r="5">
+      <c r="E5" s="11" t="n"/>
+      <c r="F5" s="11" t="n"/>
+      <c r="G5" s="11" t="n"/>
+      <c r="H5" s="11" t="n"/>
+      <c r="I5" s="11" t="n"/>
+      <c r="J5" s="11" t="n"/>
+    </row>
     <row r="6">
-      <c r="G6" s="16" t="n"/>
+      <c r="G6" s="11" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -732,193 +789,191 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC14"/>
+  <dimension ref="A1:AC17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <pane xSplit="2" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
-    <col width="10.90625" bestFit="1" customWidth="1" style="13" min="1" max="1"/>
-    <col width="17.54296875" bestFit="1" customWidth="1" style="13" min="2" max="2"/>
-    <col width="28.7265625" bestFit="1" customWidth="1" style="13" min="3" max="3"/>
-    <col width="4.81640625" bestFit="1" customWidth="1" style="13" min="4" max="4"/>
-    <col width="9.36328125" bestFit="1" customWidth="1" style="13" min="5" max="5"/>
-    <col width="8.453125" bestFit="1" customWidth="1" style="13" min="6" max="6"/>
-    <col width="3.7265625" bestFit="1" customWidth="1" style="13" min="7" max="7"/>
-    <col width="3.54296875" bestFit="1" customWidth="1" style="13" min="8" max="8"/>
-    <col width="7.54296875" bestFit="1" customWidth="1" style="13" min="9" max="9"/>
-    <col width="9.7265625" bestFit="1" customWidth="1" style="13" min="10" max="10"/>
-    <col width="6.54296875" bestFit="1" customWidth="1" style="13" min="11" max="11"/>
-    <col width="4.26953125" bestFit="1" customWidth="1" style="13" min="12" max="12"/>
-    <col width="4.6328125" bestFit="1" customWidth="1" style="13" min="13" max="13"/>
-    <col width="8.54296875" bestFit="1" customWidth="1" style="13" min="14" max="14"/>
-    <col width="7.1796875" bestFit="1" customWidth="1" style="13" min="15" max="15"/>
-    <col width="41.08984375" bestFit="1" customWidth="1" style="13" min="16" max="16"/>
-    <col width="5.90625" bestFit="1" customWidth="1" style="13" min="17" max="17"/>
-    <col width="3.453125" bestFit="1" customWidth="1" style="13" min="18" max="18"/>
-    <col width="6.26953125" bestFit="1" customWidth="1" style="13" min="19" max="19"/>
-    <col width="6.81640625" bestFit="1" customWidth="1" style="13" min="20" max="20"/>
-    <col width="6.08984375" bestFit="1" customWidth="1" style="13" min="21" max="21"/>
-    <col width="3.90625" bestFit="1" customWidth="1" style="13" min="22" max="22"/>
-    <col width="4.453125" bestFit="1" customWidth="1" style="13" min="23" max="23"/>
-    <col width="7.81640625" bestFit="1" customWidth="1" style="13" min="24" max="24"/>
-    <col width="6.6328125" bestFit="1" customWidth="1" style="13" min="25" max="25"/>
-    <col width="6.54296875" bestFit="1" customWidth="1" style="13" min="26" max="26"/>
-    <col width="3.1796875" bestFit="1" customWidth="1" style="13" min="27" max="27"/>
-    <col width="5.54296875" bestFit="1" customWidth="1" style="13" min="28" max="29"/>
+    <col width="10.90625" bestFit="1" customWidth="1" style="19" min="1" max="1"/>
+    <col width="17.54296875" bestFit="1" customWidth="1" style="19" min="2" max="2"/>
+    <col width="28.7265625" bestFit="1" customWidth="1" style="19" min="3" max="3"/>
+    <col width="4.81640625" bestFit="1" customWidth="1" style="19" min="4" max="4"/>
+    <col width="4.90625" bestFit="1" customWidth="1" style="19" min="5" max="5"/>
+    <col width="8.26953125" bestFit="1" customWidth="1" style="19" min="6" max="6"/>
+    <col width="3.7265625" bestFit="1" customWidth="1" style="19" min="7" max="7"/>
+    <col width="3.54296875" bestFit="1" customWidth="1" style="19" min="8" max="8"/>
+    <col width="7.54296875" bestFit="1" customWidth="1" style="19" min="9" max="9"/>
+    <col width="9.7265625" bestFit="1" customWidth="1" style="19" min="10" max="10"/>
+    <col width="6.54296875" bestFit="1" customWidth="1" style="19" min="11" max="11"/>
+    <col width="4.26953125" bestFit="1" customWidth="1" style="19" min="12" max="12"/>
+    <col width="4.6328125" bestFit="1" customWidth="1" style="19" min="13" max="13"/>
+    <col width="8.54296875" bestFit="1" customWidth="1" style="19" min="14" max="14"/>
+    <col width="7.1796875" bestFit="1" customWidth="1" style="19" min="15" max="15"/>
+    <col width="41.08984375" bestFit="1" customWidth="1" style="19" min="16" max="16"/>
+    <col width="5.90625" bestFit="1" customWidth="1" style="19" min="17" max="17"/>
+    <col width="3.453125" bestFit="1" customWidth="1" style="19" min="18" max="18"/>
+    <col width="8.26953125" customWidth="1" style="19" min="19" max="19"/>
+    <col width="10.26953125" customWidth="1" style="19" min="20" max="20"/>
+    <col width="9.7265625" bestFit="1" customWidth="1" style="19" min="21" max="24"/>
+    <col width="7.453125" bestFit="1" customWidth="1" style="19" min="25" max="25"/>
+    <col width="6.54296875" bestFit="1" customWidth="1" style="19" min="26" max="26"/>
+    <col width="3.1796875" bestFit="1" customWidth="1" style="19" min="27" max="27"/>
+    <col width="5.54296875" bestFit="1" customWidth="1" style="19" min="28" max="28"/>
+    <col width="11.36328125" bestFit="1" customWidth="1" style="19" min="29" max="29"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" customFormat="1" customHeight="1" s="9">
-      <c r="A1" s="7" t="inlineStr">
+    <row r="1" ht="15.5" customFormat="1" customHeight="1" s="7">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>table</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>field</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>Descrição</t>
-        </is>
-      </c>
-      <c r="D1" s="7" t="inlineStr">
-        <is>
-          <t>Tipo</t>
-        </is>
-      </c>
-      <c r="E1" s="7" t="inlineStr">
-        <is>
-          <t>Tamanho</t>
-        </is>
-      </c>
-      <c r="F1" s="7" t="inlineStr">
-        <is>
-          <t>Formato</t>
-        </is>
-      </c>
-      <c r="G1" s="8" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>desc</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="F1" s="5" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>pk</t>
         </is>
       </c>
-      <c r="H1" s="8" t="inlineStr">
+      <c r="H1" s="6" t="inlineStr">
         <is>
           <t>fk</t>
         </is>
       </c>
-      <c r="I1" s="8" t="inlineStr">
+      <c r="I1" s="6" t="inlineStr">
         <is>
           <t>fk_field</t>
         </is>
       </c>
-      <c r="J1" s="8" t="inlineStr">
+      <c r="J1" s="6" t="inlineStr">
         <is>
           <t>fk_table</t>
         </is>
       </c>
-      <c r="K1" s="8" t="inlineStr">
+      <c r="K1" s="6" t="inlineStr">
         <is>
           <t>empty</t>
         </is>
       </c>
-      <c r="L1" s="8" t="inlineStr">
+      <c r="L1" s="6" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="M1" s="8" t="inlineStr">
+      <c r="M1" s="6" t="inlineStr">
         <is>
           <t>zero</t>
         </is>
       </c>
-      <c r="N1" s="8" t="inlineStr">
+      <c r="N1" s="6" t="inlineStr">
         <is>
           <t>negative</t>
         </is>
       </c>
-      <c r="O1" s="8" t="inlineStr">
+      <c r="O1" s="6" t="inlineStr">
         <is>
           <t>unique</t>
         </is>
       </c>
-      <c r="P1" s="8" t="inlineStr">
+      <c r="P1" s="6" t="inlineStr">
         <is>
           <t>regex</t>
         </is>
       </c>
-      <c r="Q1" s="8" t="inlineStr">
+      <c r="Q1" s="6" t="inlineStr">
         <is>
           <t>range</t>
         </is>
       </c>
-      <c r="R1" s="8" t="inlineStr">
+      <c r="R1" s="6" t="inlineStr">
         <is>
           <t>list</t>
         </is>
       </c>
-      <c r="S1" s="11" t="inlineStr">
+      <c r="S1" s="13" t="inlineStr">
         <is>
           <t>lowest</t>
         </is>
       </c>
-      <c r="T1" s="11" t="inlineStr">
+      <c r="T1" s="13" t="inlineStr">
         <is>
           <t>highest</t>
         </is>
       </c>
-      <c r="U1" s="11" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="V1" s="11" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="W1" s="11" t="inlineStr">
-        <is>
-          <t>zero</t>
-        </is>
-      </c>
-      <c r="X1" s="11" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="Y1" s="11" t="inlineStr">
-        <is>
-          <t>unique</t>
-        </is>
-      </c>
-      <c r="Z1" s="11" t="inlineStr">
+      <c r="U1" s="9" t="inlineStr">
+        <is>
+          <t>emptys</t>
+        </is>
+      </c>
+      <c r="V1" s="9" t="inlineStr">
+        <is>
+          <t>nulls</t>
+        </is>
+      </c>
+      <c r="W1" s="9" t="inlineStr">
+        <is>
+          <t>zeroes</t>
+        </is>
+      </c>
+      <c r="X1" s="9" t="inlineStr">
+        <is>
+          <t>negatives</t>
+        </is>
+      </c>
+      <c r="Y1" s="9" t="inlineStr">
+        <is>
+          <t>uniques</t>
+        </is>
+      </c>
+      <c r="Z1" s="9" t="inlineStr">
         <is>
           <t>format</t>
         </is>
       </c>
-      <c r="AA1" s="11" t="inlineStr">
+      <c r="AA1" s="9" t="inlineStr">
         <is>
           <t>list</t>
         </is>
       </c>
-      <c r="AB1" s="11" t="inlineStr">
+      <c r="AB1" s="9" t="inlineStr">
         <is>
           <t>range</t>
         </is>
       </c>
-      <c r="AC1" s="11" t="inlineStr">
-        <is>
-          <t>range</t>
+      <c r="AC1" s="9" t="inlineStr">
+        <is>
+          <t>fk_reference</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15.5" customFormat="1" customHeight="1" s="9">
+    <row r="2" ht="15.5" customFormat="1" customHeight="1" s="7">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>ses_cias</t>
@@ -945,59 +1000,75 @@
         </is>
       </c>
       <c r="F2" s="1" t="n"/>
-      <c r="G2" s="10" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H2" s="10" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I2" s="10" t="n"/>
-      <c r="J2" s="10" t="n"/>
-      <c r="K2" s="10" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="L2" s="10" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="M2" s="10" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="N2" s="10" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="O2" s="10" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="P2" s="10" t="n"/>
-      <c r="Q2" s="10" t="n"/>
-      <c r="R2" s="10" t="n"/>
-      <c r="S2" s="3" t="n"/>
-      <c r="T2" s="3" t="n"/>
-      <c r="U2" s="5" t="n"/>
-      <c r="V2" s="5" t="n"/>
-      <c r="W2" s="5" t="n"/>
-      <c r="X2" s="5" t="n"/>
-      <c r="Y2" s="5" t="n"/>
-      <c r="Z2" s="5" t="n"/>
-      <c r="AA2" s="5" t="n"/>
-      <c r="AB2" s="5" t="n"/>
-      <c r="AC2" s="5" t="n"/>
+      <c r="G2" s="8" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="H2" s="8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="I2" s="8" t="n"/>
+      <c r="J2" s="8" t="n"/>
+      <c r="K2" s="8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="L2" s="8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M2" s="8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="N2" s="8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="O2" s="8" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="P2" s="8" t="n"/>
+      <c r="Q2" s="8" t="n"/>
+      <c r="R2" s="8" t="n"/>
+      <c r="S2" s="18" t="n">
+        <v>-1007</v>
+      </c>
+      <c r="T2" s="18" t="n">
+        <v>90058</v>
+      </c>
+      <c r="U2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="18" t="inlineStr">
+        <is>
+          <t>2 (0.2692%)</t>
+        </is>
+      </c>
+      <c r="W2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" s="18" t="inlineStr">
+        <is>
+          <t>1 (0.1346%)</t>
+        </is>
+      </c>
+      <c r="Y2" s="18" t="n"/>
+      <c r="Z2" s="18" t="n"/>
+      <c r="AA2" s="18" t="n"/>
+      <c r="AB2" s="18" t="n"/>
+      <c r="AC2" s="18" t="n"/>
     </row>
-    <row r="3" ht="15.5" customFormat="1" customHeight="1" s="9">
+    <row r="3" ht="15.5" customFormat="1" customHeight="1" s="7">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>ses_cias</t>
@@ -1024,59 +1095,75 @@
         </is>
       </c>
       <c r="F3" s="1" t="n"/>
-      <c r="G3" s="10" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="H3" s="10" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I3" s="10" t="n"/>
-      <c r="J3" s="10" t="n"/>
-      <c r="K3" s="10" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="L3" s="10" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="M3" s="10" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="N3" s="10" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="O3" s="10" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="P3" s="10" t="n"/>
-      <c r="Q3" s="10" t="n"/>
-      <c r="R3" s="10" t="n"/>
-      <c r="S3" s="3" t="n"/>
-      <c r="T3" s="3" t="n"/>
-      <c r="U3" s="5" t="n"/>
-      <c r="V3" s="5" t="n"/>
-      <c r="W3" s="5" t="n"/>
-      <c r="X3" s="5" t="n"/>
-      <c r="Y3" s="5" t="n"/>
-      <c r="Z3" s="5" t="n"/>
-      <c r="AA3" s="5" t="n"/>
-      <c r="AB3" s="5" t="n"/>
-      <c r="AC3" s="5" t="n"/>
+      <c r="G3" s="8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="H3" s="8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="I3" s="8" t="n"/>
+      <c r="J3" s="8" t="n"/>
+      <c r="K3" s="8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="L3" s="8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M3" s="8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="N3" s="8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="O3" s="8" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="P3" s="8" t="n"/>
+      <c r="Q3" s="8" t="n"/>
+      <c r="R3" s="8" t="n"/>
+      <c r="S3" s="18" t="inlineStr">
+        <is>
+          <t>180 SEGUROS S.A.</t>
+        </is>
+      </c>
+      <c r="T3" s="18" t="inlineStr">
+        <is>
+          <t>ZURICH SANTANDER BRASIL SEGUROS S.A.</t>
+        </is>
+      </c>
+      <c r="U3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="18" t="n"/>
+      <c r="Z3" s="18" t="n"/>
+      <c r="AA3" s="18" t="n"/>
+      <c r="AB3" s="18" t="n"/>
+      <c r="AC3" s="18" t="n"/>
     </row>
-    <row r="4" ht="15.5" customHeight="1" s="13">
+    <row r="4" ht="15.5" customHeight="1" s="19">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>ses_ramos</t>
@@ -1103,59 +1190,71 @@
         </is>
       </c>
       <c r="F4" s="1" t="n"/>
-      <c r="G4" s="10" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H4" s="10" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I4" s="10" t="n"/>
-      <c r="J4" s="10" t="n"/>
-      <c r="K4" s="10" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="L4" s="10" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="M4" s="10" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="N4" s="10" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="O4" s="10" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="P4" s="10" t="n"/>
-      <c r="Q4" s="10" t="n"/>
-      <c r="R4" s="10" t="n"/>
-      <c r="S4" s="3" t="n"/>
-      <c r="T4" s="3" t="n"/>
-      <c r="U4" s="5" t="n"/>
-      <c r="V4" s="5" t="n"/>
-      <c r="W4" s="5" t="n"/>
-      <c r="X4" s="5" t="n"/>
-      <c r="Y4" s="5" t="n"/>
-      <c r="Z4" s="5" t="n"/>
-      <c r="AA4" s="5" t="n"/>
-      <c r="AB4" s="5" t="n"/>
-      <c r="AC4" s="5" t="n"/>
+      <c r="G4" s="8" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="H4" s="8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="I4" s="8" t="n"/>
+      <c r="J4" s="8" t="n"/>
+      <c r="K4" s="8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="L4" s="8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M4" s="8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="N4" s="8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="O4" s="8" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="P4" s="8" t="n"/>
+      <c r="Q4" s="8" t="n"/>
+      <c r="R4" s="8" t="n"/>
+      <c r="S4" s="18" t="n">
+        <v>111</v>
+      </c>
+      <c r="T4" s="18" t="n">
+        <v>2293</v>
+      </c>
+      <c r="U4" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="18" t="n"/>
+      <c r="Z4" s="18" t="n"/>
+      <c r="AA4" s="18" t="n"/>
+      <c r="AB4" s="18" t="n"/>
+      <c r="AC4" s="18" t="n"/>
     </row>
-    <row r="5" ht="15.5" customHeight="1" s="13">
+    <row r="5" ht="15.5" customHeight="1" s="19">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>ses_ramos</t>
@@ -1182,57 +1281,73 @@
         </is>
       </c>
       <c r="F5" s="1" t="n"/>
-      <c r="G5" s="10" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="H5" s="10" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I5" s="10" t="n"/>
-      <c r="J5" s="10" t="n"/>
-      <c r="K5" s="10" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="L5" s="10" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="M5" s="10" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="N5" s="10" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="O5" s="10" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="P5" s="10" t="n"/>
-      <c r="Q5" s="10" t="n"/>
-      <c r="R5" s="10" t="n"/>
-      <c r="S5" s="3" t="n"/>
-      <c r="T5" s="3" t="n"/>
-      <c r="U5" s="5" t="n"/>
-      <c r="V5" s="5" t="n"/>
-      <c r="W5" s="5" t="n"/>
-      <c r="X5" s="5" t="n"/>
-      <c r="Y5" s="5" t="n"/>
-      <c r="Z5" s="5" t="n"/>
-      <c r="AA5" s="5" t="n"/>
-      <c r="AB5" s="5" t="n"/>
-      <c r="AC5" s="5" t="n"/>
+      <c r="G5" s="8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="H5" s="8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="I5" s="15" t="n"/>
+      <c r="J5" s="8" t="n"/>
+      <c r="K5" s="8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="L5" s="8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M5" s="8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="N5" s="8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="O5" s="8" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="P5" s="8" t="n"/>
+      <c r="Q5" s="8" t="n"/>
+      <c r="R5" s="8" t="n"/>
+      <c r="S5" s="18" t="inlineStr">
+        <is>
+          <t>0111 - INCĘNDIO TRADICIONAL(RUN OFF)</t>
+        </is>
+      </c>
+      <c r="T5" s="18" t="inlineStr">
+        <is>
+          <t>2293 - VIDA EFPC</t>
+        </is>
+      </c>
+      <c r="U5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="18" t="n"/>
+      <c r="Z5" s="18" t="n"/>
+      <c r="AA5" s="18" t="n"/>
+      <c r="AB5" s="18" t="n"/>
+      <c r="AC5" s="18" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1261,65 +1376,81 @@
         </is>
       </c>
       <c r="F6" s="1" t="n"/>
-      <c r="G6" s="6" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H6" s="6" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="I6" s="6" t="inlineStr">
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="H6" s="4" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="I6" s="4" t="inlineStr">
         <is>
           <t>coenti</t>
         </is>
       </c>
-      <c r="J6" s="6" t="inlineStr">
+      <c r="J6" s="4" t="inlineStr">
         <is>
           <t>ses_cias</t>
         </is>
       </c>
-      <c r="K6" s="6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="L6" s="6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="M6" s="6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="N6" s="6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="O6" s="6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="P6" s="6" t="n"/>
-      <c r="Q6" s="6" t="n"/>
-      <c r="R6" s="6" t="n"/>
-      <c r="S6" s="3" t="n"/>
-      <c r="T6" s="3" t="n"/>
-      <c r="U6" s="5" t="n"/>
-      <c r="V6" s="5" t="n"/>
-      <c r="W6" s="5" t="n"/>
-      <c r="X6" s="5" t="n"/>
-      <c r="Y6" s="5" t="n"/>
-      <c r="Z6" s="5" t="n"/>
-      <c r="AA6" s="5" t="n"/>
-      <c r="AB6" s="5" t="n"/>
-      <c r="AC6" s="5" t="n"/>
+      <c r="K6" s="4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="L6" s="4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M6" s="4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="N6" s="4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="O6" s="4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="P6" s="4" t="n"/>
+      <c r="Q6" s="4" t="n"/>
+      <c r="R6" s="4" t="n"/>
+      <c r="S6" s="18" t="n">
+        <v>-5096</v>
+      </c>
+      <c r="T6" s="18" t="n">
+        <v>5762</v>
+      </c>
+      <c r="U6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="18" t="inlineStr">
+        <is>
+          <t>1 (1.0%)</t>
+        </is>
+      </c>
+      <c r="X6" s="18" t="inlineStr">
+        <is>
+          <t>1 (1.0%)</t>
+        </is>
+      </c>
+      <c r="Y6" s="18" t="n"/>
+      <c r="Z6" s="18" t="n"/>
+      <c r="AA6" s="18" t="n"/>
+      <c r="AB6" s="18" t="n"/>
+      <c r="AC6" s="18" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1348,65 +1479,77 @@
         </is>
       </c>
       <c r="F7" s="1" t="n"/>
-      <c r="G7" s="6" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H7" s="6" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="I7" s="6" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="H7" s="4" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="I7" s="4" t="inlineStr">
         <is>
           <t>coramo</t>
         </is>
       </c>
-      <c r="J7" s="6" t="inlineStr">
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>ses_ramos</t>
         </is>
       </c>
-      <c r="K7" s="6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="L7" s="6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="M7" s="6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="N7" s="6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="O7" s="6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="P7" s="6" t="n"/>
-      <c r="Q7" s="6" t="n"/>
-      <c r="R7" s="6" t="n"/>
-      <c r="S7" s="3" t="n"/>
-      <c r="T7" s="3" t="n"/>
-      <c r="U7" s="5" t="n"/>
-      <c r="V7" s="5" t="n"/>
-      <c r="W7" s="5" t="n"/>
-      <c r="X7" s="5" t="n"/>
-      <c r="Y7" s="5" t="n"/>
-      <c r="Z7" s="5" t="n"/>
-      <c r="AA7" s="5" t="n"/>
-      <c r="AB7" s="5" t="n"/>
-      <c r="AC7" s="5" t="n"/>
+      <c r="K7" s="4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="L7" s="4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M7" s="4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="N7" s="4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="O7" s="4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="P7" s="4" t="n"/>
+      <c r="Q7" s="4" t="n"/>
+      <c r="R7" s="4" t="n"/>
+      <c r="S7" s="18" t="n">
+        <v>11</v>
+      </c>
+      <c r="T7" s="18" t="n">
+        <v>1164</v>
+      </c>
+      <c r="U7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="18" t="n"/>
+      <c r="Z7" s="18" t="n"/>
+      <c r="AA7" s="18" t="n"/>
+      <c r="AB7" s="18" t="n"/>
+      <c r="AC7" s="18" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1439,61 +1582,79 @@
           <t>YYYYMM</t>
         </is>
       </c>
-      <c r="G8" s="6" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H8" s="6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I8" s="6" t="n"/>
-      <c r="J8" s="6" t="n"/>
-      <c r="K8" s="6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="L8" s="6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="M8" s="6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="N8" s="6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="O8" s="6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="P8" s="12" t="inlineStr">
+      <c r="G8" s="4" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="H8" s="4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="I8" s="4" t="n"/>
+      <c r="J8" s="4" t="n"/>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="L8" s="4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M8" s="4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="N8" s="4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="O8" s="4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="P8" s="10" t="inlineStr">
         <is>
           <t>^(?:19[7-9]\d|20[0-4]\d|2050)(?:0[1-9]|1[0-2])$</t>
         </is>
       </c>
-      <c r="Q8" s="6" t="n"/>
-      <c r="R8" s="6" t="n"/>
-      <c r="S8" s="3" t="n"/>
-      <c r="T8" s="3" t="n"/>
-      <c r="U8" s="5" t="n"/>
-      <c r="V8" s="5" t="n"/>
-      <c r="W8" s="5" t="n"/>
-      <c r="X8" s="5" t="n"/>
-      <c r="Y8" s="5" t="n"/>
-      <c r="Z8" s="5" t="n"/>
-      <c r="AA8" s="5" t="n"/>
-      <c r="AB8" s="5" t="n"/>
-      <c r="AC8" s="5" t="n"/>
+      <c r="Q8" s="4" t="n"/>
+      <c r="R8" s="4" t="n"/>
+      <c r="S8" s="18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="T8" s="18" t="inlineStr">
+        <is>
+          <t>200009</t>
+        </is>
+      </c>
+      <c r="U8" s="18" t="inlineStr">
+        <is>
+          <t>1 (1.0%)</t>
+        </is>
+      </c>
+      <c r="V8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="18" t="n"/>
+      <c r="Z8" s="18" t="n"/>
+      <c r="AA8" s="18" t="n"/>
+      <c r="AB8" s="18" t="n"/>
+      <c r="AC8" s="18" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1522,57 +1683,77 @@
         </is>
       </c>
       <c r="F9" s="1" t="n"/>
-      <c r="G9" s="6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="H9" s="6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I9" s="6" t="n"/>
-      <c r="J9" s="6" t="n"/>
-      <c r="K9" s="6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="L9" s="6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="M9" s="6" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="N9" s="6" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="O9" s="6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="P9" s="6" t="n"/>
-      <c r="Q9" s="6" t="n"/>
-      <c r="R9" s="6" t="n"/>
-      <c r="S9" s="3" t="n"/>
-      <c r="T9" s="3" t="n"/>
-      <c r="U9" s="5" t="n"/>
-      <c r="V9" s="5" t="n"/>
-      <c r="W9" s="5" t="n"/>
-      <c r="X9" s="5" t="n"/>
-      <c r="Y9" s="5" t="n"/>
-      <c r="Z9" s="5" t="n"/>
-      <c r="AA9" s="5" t="n"/>
-      <c r="AB9" s="5" t="n"/>
-      <c r="AC9" s="5" t="n"/>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="H9" s="4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="I9" s="4" t="n"/>
+      <c r="J9" s="4" t="n"/>
+      <c r="K9" s="4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="L9" s="4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M9" s="4" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="N9" s="4" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O9" s="4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="P9" s="4" t="n"/>
+      <c r="Q9" s="4" t="n"/>
+      <c r="R9" s="4" t="n"/>
+      <c r="S9" s="18" t="inlineStr">
+        <is>
+          <t>-1886</t>
+        </is>
+      </c>
+      <c r="T9" s="18" t="inlineStr">
+        <is>
+          <t>898560</t>
+        </is>
+      </c>
+      <c r="U9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="18" t="inlineStr">
+        <is>
+          <t>52 (52.0%)</t>
+        </is>
+      </c>
+      <c r="X9" s="18" t="inlineStr">
+        <is>
+          <t>4 (4.0%)</t>
+        </is>
+      </c>
+      <c r="Y9" s="18" t="n"/>
+      <c r="Z9" s="18" t="n"/>
+      <c r="AA9" s="18" t="n"/>
+      <c r="AB9" s="18" t="n"/>
+      <c r="AC9" s="18" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1601,57 +1782,77 @@
         </is>
       </c>
       <c r="F10" s="1" t="n"/>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="H10" s="6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I10" s="6" t="n"/>
-      <c r="J10" s="6" t="n"/>
-      <c r="K10" s="6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="L10" s="6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="M10" s="6" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="N10" s="6" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="O10" s="6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="P10" s="6" t="n"/>
-      <c r="Q10" s="6" t="n"/>
-      <c r="R10" s="6" t="n"/>
-      <c r="S10" s="3" t="n"/>
-      <c r="T10" s="3" t="n"/>
-      <c r="U10" s="5" t="n"/>
-      <c r="V10" s="5" t="n"/>
-      <c r="W10" s="5" t="n"/>
-      <c r="X10" s="5" t="n"/>
-      <c r="Y10" s="5" t="n"/>
-      <c r="Z10" s="5" t="n"/>
-      <c r="AA10" s="5" t="n"/>
-      <c r="AB10" s="5" t="n"/>
-      <c r="AC10" s="5" t="n"/>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="H10" s="4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="I10" s="4" t="n"/>
+      <c r="J10" s="4" t="n"/>
+      <c r="K10" s="4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="L10" s="4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M10" s="4" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="N10" s="4" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O10" s="4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="P10" s="4" t="n"/>
+      <c r="Q10" s="4" t="n"/>
+      <c r="R10" s="4" t="n"/>
+      <c r="S10" s="18" t="inlineStr">
+        <is>
+          <t>-375005</t>
+        </is>
+      </c>
+      <c r="T10" s="18" t="inlineStr">
+        <is>
+          <t>9737</t>
+        </is>
+      </c>
+      <c r="U10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="18" t="inlineStr">
+        <is>
+          <t>11 (11.0%)</t>
+        </is>
+      </c>
+      <c r="X10" s="18" t="inlineStr">
+        <is>
+          <t>1 (1.0%)</t>
+        </is>
+      </c>
+      <c r="Y10" s="18" t="n"/>
+      <c r="Z10" s="18" t="n"/>
+      <c r="AA10" s="18" t="n"/>
+      <c r="AB10" s="18" t="n"/>
+      <c r="AC10" s="18" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1680,57 +1881,77 @@
         </is>
       </c>
       <c r="F11" s="1" t="n"/>
-      <c r="G11" s="6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="H11" s="6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I11" s="6" t="n"/>
-      <c r="J11" s="6" t="n"/>
-      <c r="K11" s="6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="L11" s="6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="M11" s="6" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="N11" s="6" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="O11" s="6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="P11" s="6" t="n"/>
-      <c r="Q11" s="6" t="n"/>
-      <c r="R11" s="6" t="n"/>
-      <c r="S11" s="3" t="n"/>
-      <c r="T11" s="3" t="n"/>
-      <c r="U11" s="5" t="n"/>
-      <c r="V11" s="5" t="n"/>
-      <c r="W11" s="5" t="n"/>
-      <c r="X11" s="5" t="n"/>
-      <c r="Y11" s="5" t="n"/>
-      <c r="Z11" s="5" t="n"/>
-      <c r="AA11" s="5" t="n"/>
-      <c r="AB11" s="5" t="n"/>
-      <c r="AC11" s="5" t="n"/>
+      <c r="G11" s="4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="H11" s="4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="I11" s="4" t="n"/>
+      <c r="J11" s="4" t="n"/>
+      <c r="K11" s="4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="L11" s="4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M11" s="4" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="N11" s="4" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O11" s="4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="P11" s="4" t="n"/>
+      <c r="Q11" s="4" t="n"/>
+      <c r="R11" s="4" t="n"/>
+      <c r="S11" s="18" t="inlineStr">
+        <is>
+          <t>-1886</t>
+        </is>
+      </c>
+      <c r="T11" s="18" t="inlineStr">
+        <is>
+          <t>895937</t>
+        </is>
+      </c>
+      <c r="U11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="18" t="inlineStr">
+        <is>
+          <t>51 (51.0%)</t>
+        </is>
+      </c>
+      <c r="X11" s="18" t="inlineStr">
+        <is>
+          <t>4 (4.0%)</t>
+        </is>
+      </c>
+      <c r="Y11" s="18" t="n"/>
+      <c r="Z11" s="18" t="n"/>
+      <c r="AA11" s="18" t="n"/>
+      <c r="AB11" s="18" t="n"/>
+      <c r="AC11" s="18" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1759,57 +1980,77 @@
         </is>
       </c>
       <c r="F12" s="1" t="n"/>
-      <c r="G12" s="6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="H12" s="6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I12" s="6" t="n"/>
-      <c r="J12" s="6" t="n"/>
-      <c r="K12" s="6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="L12" s="6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="M12" s="6" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="N12" s="6" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="O12" s="6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="P12" s="6" t="n"/>
-      <c r="Q12" s="6" t="n"/>
-      <c r="R12" s="6" t="n"/>
-      <c r="S12" s="3" t="n"/>
-      <c r="T12" s="3" t="n"/>
-      <c r="U12" s="5" t="n"/>
-      <c r="V12" s="5" t="n"/>
-      <c r="W12" s="5" t="n"/>
-      <c r="X12" s="5" t="n"/>
-      <c r="Y12" s="5" t="n"/>
-      <c r="Z12" s="5" t="n"/>
-      <c r="AA12" s="5" t="n"/>
-      <c r="AB12" s="5" t="n"/>
-      <c r="AC12" s="5" t="n"/>
+      <c r="G12" s="4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="H12" s="4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="I12" s="4" t="n"/>
+      <c r="J12" s="4" t="n"/>
+      <c r="K12" s="4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="L12" s="4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M12" s="4" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="N12" s="4" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O12" s="4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="P12" s="4" t="n"/>
+      <c r="Q12" s="4" t="n"/>
+      <c r="R12" s="4" t="n"/>
+      <c r="S12" s="18" t="inlineStr">
+        <is>
+          <t>-184</t>
+        </is>
+      </c>
+      <c r="T12" s="18" t="inlineStr">
+        <is>
+          <t>982315</t>
+        </is>
+      </c>
+      <c r="U12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" s="18" t="inlineStr">
+        <is>
+          <t>60 (60.0%)</t>
+        </is>
+      </c>
+      <c r="X12" s="18" t="inlineStr">
+        <is>
+          <t>4 (4.0%)</t>
+        </is>
+      </c>
+      <c r="Y12" s="18" t="n"/>
+      <c r="Z12" s="18" t="n"/>
+      <c r="AA12" s="18" t="n"/>
+      <c r="AB12" s="18" t="n"/>
+      <c r="AC12" s="18" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1838,57 +2079,77 @@
         </is>
       </c>
       <c r="F13" s="1" t="n"/>
-      <c r="G13" s="6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="H13" s="6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I13" s="6" t="n"/>
-      <c r="J13" s="6" t="n"/>
-      <c r="K13" s="6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="L13" s="6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="M13" s="6" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="N13" s="6" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="O13" s="6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="P13" s="6" t="n"/>
-      <c r="Q13" s="6" t="n"/>
-      <c r="R13" s="6" t="n"/>
-      <c r="S13" s="3" t="n"/>
-      <c r="T13" s="3" t="n"/>
-      <c r="U13" s="5" t="n"/>
-      <c r="V13" s="5" t="n"/>
-      <c r="W13" s="5" t="n"/>
-      <c r="X13" s="5" t="n"/>
-      <c r="Y13" s="5" t="n"/>
-      <c r="Z13" s="5" t="n"/>
-      <c r="AA13" s="5" t="n"/>
-      <c r="AB13" s="5" t="n"/>
-      <c r="AC13" s="5" t="n"/>
+      <c r="G13" s="4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="H13" s="4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="I13" s="4" t="n"/>
+      <c r="J13" s="4" t="n"/>
+      <c r="K13" s="4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="L13" s="4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M13" s="4" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="N13" s="4" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O13" s="4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="P13" s="4" t="n"/>
+      <c r="Q13" s="4" t="n"/>
+      <c r="R13" s="4" t="n"/>
+      <c r="S13" s="18" t="inlineStr">
+        <is>
+          <t>-181</t>
+        </is>
+      </c>
+      <c r="T13" s="18" t="inlineStr">
+        <is>
+          <t>98239</t>
+        </is>
+      </c>
+      <c r="U13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" s="18" t="inlineStr">
+        <is>
+          <t>18 (18.0%)</t>
+        </is>
+      </c>
+      <c r="X13" s="18" t="inlineStr">
+        <is>
+          <t>5 (5.0%)</t>
+        </is>
+      </c>
+      <c r="Y13" s="18" t="n"/>
+      <c r="Z13" s="18" t="n"/>
+      <c r="AA13" s="18" t="n"/>
+      <c r="AB13" s="18" t="n"/>
+      <c r="AC13" s="18" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1917,58 +2178,81 @@
         </is>
       </c>
       <c r="F14" s="1" t="n"/>
-      <c r="G14" s="6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="H14" s="6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I14" s="6" t="n"/>
-      <c r="J14" s="6" t="n"/>
-      <c r="K14" s="6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="L14" s="6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="M14" s="6" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="N14" s="6" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="O14" s="6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="P14" s="6" t="n"/>
-      <c r="Q14" s="6" t="n"/>
-      <c r="R14" s="6" t="n"/>
-      <c r="S14" s="3" t="n"/>
-      <c r="T14" s="3" t="n"/>
-      <c r="U14" s="5" t="n"/>
-      <c r="V14" s="5" t="n"/>
-      <c r="W14" s="5" t="n"/>
-      <c r="X14" s="5" t="n"/>
-      <c r="Y14" s="5" t="n"/>
-      <c r="Z14" s="5" t="n"/>
-      <c r="AA14" s="5" t="n"/>
-      <c r="AB14" s="5" t="n"/>
-      <c r="AC14" s="5" t="n"/>
+      <c r="G14" s="4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="H14" s="4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="I14" s="4" t="n"/>
+      <c r="J14" s="4" t="n"/>
+      <c r="K14" s="4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="L14" s="4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M14" s="4" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="N14" s="4" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O14" s="4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="P14" s="4" t="n"/>
+      <c r="Q14" s="4" t="n"/>
+      <c r="R14" s="4" t="n"/>
+      <c r="S14" s="18" t="inlineStr">
+        <is>
+          <t>-21</t>
+        </is>
+      </c>
+      <c r="T14" s="18" t="inlineStr">
+        <is>
+          <t>9427</t>
+        </is>
+      </c>
+      <c r="U14" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" s="18" t="inlineStr">
+        <is>
+          <t>14 (14.000000000000002%)</t>
+        </is>
+      </c>
+      <c r="X14" s="18" t="inlineStr">
+        <is>
+          <t>13 (13.0%)</t>
+        </is>
+      </c>
+      <c r="Y14" s="18" t="n"/>
+      <c r="Z14" s="18" t="n"/>
+      <c r="AA14" s="18" t="n"/>
+      <c r="AB14" s="18" t="n"/>
+      <c r="AC14" s="18" t="n"/>
     </row>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation sqref="G2:H14 K2:O14" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
@@ -1976,5 +2260,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>